--- a/src/main/resources/data/workbook1.xlsx
+++ b/src/main/resources/data/workbook1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubRepos\wishing-app\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90878B73-B23A-4079-99A2-3EFE35C3EC6C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD54C1-9257-4C0D-8467-80E226D07836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1470" yWindow="1470" windowWidth="21600" windowHeight="11385" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,7 +418,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -464,10 +464,10 @@
         <v>5</v>
       </c>
       <c r="C3" s="2">
-        <v>43986</v>
+        <v>31933</v>
       </c>
       <c r="D3" s="2">
-        <v>43620</v>
+        <v>43256</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/workbook1.xlsx
+++ b/src/main/resources/data/workbook1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubRepos\wishing-app\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDFD54C1-9257-4C0D-8467-80E226D07836}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280E0A5A-1E0A-482D-8B6D-69F05BAC81D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
   </bookViews>
@@ -467,7 +467,7 @@
         <v>31933</v>
       </c>
       <c r="D3" s="2">
-        <v>43256</v>
+        <v>43987</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/workbook1.xlsx
+++ b/src/main/resources/data/workbook1.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubRepos\wishing-app\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{280E0A5A-1E0A-482D-8B6D-69F05BAC81D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5181AC7-C2E1-4CD9-8E6B-53C39A0DF4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
+    <workbookView xWindow="8835" yWindow="3855" windowWidth="8370" windowHeight="6915" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -48,10 +50,13 @@
     <t>Nadeem</t>
   </si>
   <si>
-    <t>coolmind182006@gmail.com</t>
-  </si>
-  <si>
     <t>Nadeem1</t>
+  </si>
+  <si>
+    <t>coolmind1820064@gmail.com</t>
+  </si>
+  <si>
+    <t>coolmind18200623@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -418,12 +423,13 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.140625" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
   </cols>
@@ -447,7 +453,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C2" s="2">
         <v>43573</v>
@@ -458,21 +464,146 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="2">
         <v>31933</v>
       </c>
       <c r="D3" s="2">
-        <v>43987</v>
+        <v>43621</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{32471CB9-C232-441B-A093-B14FFD225C62}"/>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{F3A02294-8806-4805-826D-1CD093362D2D}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{9B30DC9F-8110-4EA4-ADAE-A167B41E79EA}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082CCBEC-C8E8-447C-8FCB-71309DE437ED}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2">
+        <v>43573</v>
+      </c>
+      <c r="D2" s="2"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2">
+        <v>31933</v>
+      </c>
+      <c r="D3" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{7C405427-07E1-420D-A46D-D6B0C1CAEDC2}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{495C4CAF-0747-41FF-BD85-7B17A10951E6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB4EE42B-0B14-41C3-8841-5ED938BEA6ED}">
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2">
+        <v>43573</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2">
+        <v>43621</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{310C38B7-177B-4B5B-AD8A-EDD2125D8B7E}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{D9A97D0A-E00B-4009-8248-3209D0B8D780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/src/main/resources/data/workbook1.xlsx
+++ b/src/main/resources/data/workbook1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubRepos\wishing-app\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5181AC7-C2E1-4CD9-8E6B-53C39A0DF4CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900792A-80F8-4924-A844-40C9D619C406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8835" yWindow="3855" windowWidth="8370" windowHeight="6915" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,10 +470,10 @@
         <v>6</v>
       </c>
       <c r="C3" s="2">
-        <v>31933</v>
+        <v>31934</v>
       </c>
       <c r="D3" s="2">
-        <v>43621</v>
+        <v>43257</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/data/workbook1.xlsx
+++ b/src/main/resources/data/workbook1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubRepos\wishing-app\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6900792A-80F8-4924-A844-40C9D619C406}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA470D1-D25D-476F-815A-8C3736E254D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -490,7 +490,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -552,7 +552,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/data/workbook1.xlsx
+++ b/src/main/resources/data/workbook1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\githubRepos\wishing-app\src\main\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA470D1-D25D-476F-815A-8C3736E254D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C119CEA-2F5D-46F2-B485-D23BAD891E65}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3577A7A1-F1CF-4007-86BF-145AE1B18AC3}"/>
   </bookViews>
@@ -423,7 +423,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" activeCellId="1" sqref="A3 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -478,8 +478,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{F3A02294-8806-4805-826D-1CD093362D2D}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{9B30DC9F-8110-4EA4-ADAE-A167B41E79EA}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{9B30DC9F-8110-4EA4-ADAE-A167B41E79EA}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{8DF53FE5-E800-44C5-B29C-9D42DDC02FDF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
